--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="795" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="45" yWindow="795" windowWidth="18915" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="fault tolerance" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="mA() values" sheetId="4" r:id="rId3"/>
     <sheet name="mA() distribution" sheetId="6" r:id="rId4"/>
     <sheet name="layers" sheetId="7" r:id="rId5"/>
+    <sheet name="time" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>1 sensor failed</t>
   </si>
@@ -174,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +193,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -289,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -310,6 +317,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,7 +337,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -329,10 +345,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16579047022107316"/>
+          <c:x val="0.16579047022107318"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.80095193324715042"/>
-          <c:h val="0.74860970655482972"/>
+          <c:w val="0.80095193324715053"/>
+          <c:h val="0.74860970655482995"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -821,11 +837,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71068288"/>
-        <c:axId val="71083136"/>
+        <c:axId val="94784512"/>
+        <c:axId val="94799360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71068288"/>
+        <c:axId val="94784512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,14 +871,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71083136"/>
+        <c:crossAx val="94799360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71083136"/>
+        <c:axId val="94799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -889,7 +905,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71068288"/>
+        <c:crossAx val="94784512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -912,7 +928,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.55161724187461647"/>
-          <c:y val="0.38455526392534289"/>
+          <c:y val="0.384555263925343"/>
           <c:w val="0.34448544678183884"/>
           <c:h val="0.37730314960629935"/>
         </c:manualLayout>
@@ -934,7 +950,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -942,7 +958,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -952,8 +968,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.14996062992125983"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.80791426071741002"/>
-          <c:h val="0.74465660542432222"/>
+          <c:w val="0.8079142607174099"/>
+          <c:h val="0.74465660542432233"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1517,11 +1533,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71369856"/>
-        <c:axId val="71371776"/>
+        <c:axId val="94885376"/>
+        <c:axId val="94887296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71369856"/>
+        <c:axId val="94885376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,14 +1567,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71371776"/>
+        <c:crossAx val="94887296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71371776"/>
+        <c:axId val="94887296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1585,7 +1601,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71369856"/>
+        <c:crossAx val="94885376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1608,9 +1624,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.55648594706911669"/>
-          <c:y val="0.41088546223388767"/>
+          <c:y val="0.41088546223388778"/>
           <c:w val="0.37406960848643922"/>
-          <c:h val="0.33563648293963277"/>
+          <c:h val="0.33563648293963289"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1630,7 +1646,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1638,7 +1654,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:style val="1"/>
   <c:chart>
     <c:plotArea>
@@ -1647,9 +1663,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18627023184601926"/>
+          <c:x val="0.18627023184601929"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.77553532370953637"/>
+          <c:w val="0.77553532370953648"/>
           <c:h val="0.73444808982210552"/>
         </c:manualLayout>
       </c:layout>
@@ -8380,11 +8396,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73637248"/>
-        <c:axId val="73656192"/>
+        <c:axId val="97636352"/>
+        <c:axId val="97638656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73637248"/>
+        <c:axId val="97636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,20 +8425,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.53362970253718311"/>
+              <c:x val="0.53362970253718334"/>
               <c:y val="0.89256926217556143"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73656192"/>
+        <c:crossAx val="97638656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73656192"/>
+        <c:axId val="97638656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8461,7 +8477,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73637248"/>
+        <c:crossAx val="97636352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -8889,8 +8905,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.70580417031204434"/>
           <c:y val="8.3333333333333343E-2"/>
-          <c:w val="0.21726864003110724"/>
-          <c:h val="8.3717191601049887E-2"/>
+          <c:w val="0.21726864003110727"/>
+          <c:h val="8.3717191601049901E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -8907,7 +8923,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8915,7 +8931,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:chart>
     <c:plotArea>
       <c:layout>
@@ -8923,10 +8939,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13575872460386892"/>
+          <c:x val="0.1357587246038689"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83242028774181009"/>
-          <c:h val="0.77706401283172943"/>
+          <c:h val="0.77706401283172954"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9139,11 +9155,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72982528"/>
-        <c:axId val="72984448"/>
+        <c:axId val="96825728"/>
+        <c:axId val="96827648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72982528"/>
+        <c:axId val="96825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9168,14 +9184,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72984448"/>
+        <c:crossAx val="96827648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72984448"/>
+        <c:axId val="96827648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9202,7 +9218,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72982528"/>
+        <c:crossAx val="96825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -9224,9 +9240,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.69966049382716045"/>
-          <c:y val="0.61979440069991265"/>
-          <c:w val="0.21083333333333337"/>
-          <c:h val="0.1678182414698163"/>
+          <c:y val="0.61979440069991276"/>
+          <c:w val="0.21083333333333343"/>
+          <c:h val="0.16781824146981633"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -9246,7 +9262,654 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.123108778069408"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.84908573928258957"/>
+          <c:h val="0.75391586468358118"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 15%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 20%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor error 30%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="94482816"/>
+        <c:axId val="94484352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94482816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94484352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94484352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Detection success rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94482816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59133031982113349"/>
+          <c:y val="0.40625583260425779"/>
+          <c:w val="0.35187955672207638"/>
+          <c:h val="0.3448957421988918"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="65000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9371,6 +10034,41 @@
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9679,7 +10377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
@@ -9886,7 +10584,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12960,4 +13658,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2">
+        <v>86</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>98</v>
+      </c>
+      <c r="G3" s="4">
+        <v>79</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4">
+        <v>96</v>
+      </c>
+      <c r="F4" s="4">
+        <v>98</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4">
+        <v>99</v>
+      </c>
+      <c r="E5" s="4">
+        <v>96</v>
+      </c>
+      <c r="F5" s="4">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4">
+        <v>73</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>90</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4">
+        <v>88</v>
+      </c>
+      <c r="F7" s="4">
+        <v>81</v>
+      </c>
+      <c r="G7" s="4">
+        <v>69</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>98</v>
+      </c>
+      <c r="F8" s="4">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4">
+        <v>86</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>98</v>
+      </c>
+      <c r="F9" s="4">
+        <v>98</v>
+      </c>
+      <c r="G9" s="4">
+        <v>90</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>98</v>
+      </c>
+      <c r="F10" s="4">
+        <v>98</v>
+      </c>
+      <c r="G10" s="4">
+        <v>92</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>